--- a/api_data.xlsx
+++ b/api_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1635,6 +1635,96 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6595e5da05c36854bd28c5c0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>request#123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>asijfasf</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-01-03T19:55:21.999</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>658df524c463e40c31fdce57</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ryan</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Gustavo</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ryan@gmail.com</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>$2a$10$maEUj0c0xQ2B1eQHFa3CeeQkWa.PDNd17Wy3j5R.xgmNutif19OhK</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1234-11-11</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2023-12-28T19:22:28.92</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>USER</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[{'authority': 'ROLE_USER'}]</t>
+        </is>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
